--- a/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/SP-VMO/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="202">
   <si>
     <t>PERIOD</t>
   </si>
@@ -171,223 +171,475 @@
     <t>SP/VMO</t>
   </si>
   <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>1/23,24/25/2018</t>
+  </si>
+  <si>
+    <t>SOLO P(1-0-0)</t>
+  </si>
+  <si>
+    <t>2/7,8,9/2018</t>
+  </si>
+  <si>
+    <t>SOLO P(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/15,16/2018</t>
+  </si>
+  <si>
+    <t>7/17,18/2018</t>
+  </si>
+  <si>
+    <t>8/6,7/2018</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/30,31/2018</t>
+  </si>
+  <si>
+    <t>11/14-16/2018</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/19,20/2018</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/17-21/2018</t>
+  </si>
+  <si>
+    <t>12/26-28/2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>SOLO P(4-0-0)</t>
+  </si>
+  <si>
+    <t>2/11,12, 3/5, 29/2019</t>
+  </si>
+  <si>
+    <t>2/13-15/2019</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/14,15/2019</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/16-18/2019</t>
+  </si>
+  <si>
+    <t>12/26,27/2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>CALAMITY LEAVE</t>
+  </si>
+  <si>
+    <t>2/3,4,5,6,7/2020</t>
+  </si>
+  <si>
+    <t>12/15,18/2020</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/22,23,28,29/2020</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>QL(7-0-0)</t>
+  </si>
+  <si>
+    <t>7/27-8/4/2021</t>
+  </si>
+  <si>
+    <t>12/29,31/2021</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>SL(8-0-0)</t>
+  </si>
+  <si>
+    <t>1/19-28/2022</t>
+  </si>
+  <si>
+    <t>4/7,8/2022</t>
+  </si>
+  <si>
+    <t>5/31, 6/1/2022</t>
+  </si>
+  <si>
+    <t>7/21,22/2022</t>
+  </si>
+  <si>
+    <t>8/17-19/2022</t>
+  </si>
+  <si>
+    <t>10/25,26,27/2022</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/22,23/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1/9,10,11</t>
+  </si>
+  <si>
+    <t>2/8,9/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>SL(0-4-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>5/23-26,29-31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-5-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-3-52)</t>
+  </si>
+  <si>
+    <t>UT(0-3-28)</t>
+  </si>
+  <si>
+    <t>UT(0-0-28)</t>
+  </si>
+  <si>
+    <t>UT(0-2-51)</t>
+  </si>
+  <si>
+    <t>6/29,30/2022</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-58)</t>
+  </si>
+  <si>
+    <t>UT(0-0-14)</t>
+  </si>
+  <si>
+    <t>UT(0-0-45)</t>
+  </si>
+  <si>
+    <t>7/27,28/2023</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>UT(0-0-48)</t>
+  </si>
+  <si>
+    <t>BL(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>UT(0-2-17)</t>
+  </si>
+  <si>
+    <t>UT(0-4-4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
+  </si>
+  <si>
+    <t>09/20,27/2011</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
+  </si>
+  <si>
+    <t>UT(0-1-10)</t>
+  </si>
+  <si>
+    <t>12/22,23/2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>UT(0-7-45)</t>
+  </si>
+  <si>
+    <t>UT(0-0-44)</t>
+  </si>
+  <si>
+    <t>03/14-16/2012</t>
+  </si>
+  <si>
+    <t>UT(0-3-0)</t>
+  </si>
+  <si>
+    <t>05/03,04/2012</t>
+  </si>
+  <si>
+    <t>UT(1-1-43)</t>
+  </si>
+  <si>
+    <t>05/17-18/2012</t>
+  </si>
+  <si>
+    <t>UT(0-2-27)</t>
+  </si>
+  <si>
+    <t>UT(0-1-21)</t>
+  </si>
+  <si>
+    <t>07/25,26/2012</t>
+  </si>
+  <si>
+    <t>UT(0-7-23)</t>
+  </si>
+  <si>
+    <t>03/18,19/2012</t>
+  </si>
+  <si>
+    <t>UT(0-4-21)</t>
+  </si>
+  <si>
+    <t>UT(0-6-57)</t>
+  </si>
+  <si>
+    <t>UT(0-5-40)</t>
+  </si>
+  <si>
+    <t>12/12,13,18-20/2012</t>
+  </si>
+  <si>
+    <t>12/4-6/2012</t>
+  </si>
+  <si>
+    <t>UT(0-0-30)</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>UT(0-4-50)</t>
+  </si>
+  <si>
+    <t>UT(1-5-31)</t>
+  </si>
+  <si>
+    <t>UT(0-0-33)</t>
+  </si>
+  <si>
+    <t>02/06-08/2013</t>
+  </si>
+  <si>
+    <t>UT(0-4-5)</t>
+  </si>
+  <si>
+    <t>04/10-11/2013</t>
+  </si>
+  <si>
+    <t>UT(0-1-39)</t>
+  </si>
+  <si>
+    <t>UT(0-5-50)</t>
+  </si>
+  <si>
+    <t>06/27,28/2013</t>
+  </si>
+  <si>
+    <t>UT(0-6-29)</t>
+  </si>
+  <si>
+    <t>UT(1-2-16)</t>
+  </si>
+  <si>
+    <t>UT(0-5-28)</t>
+  </si>
+  <si>
+    <t>UT(1-3-30)</t>
+  </si>
+  <si>
+    <t>11/04,05/2013</t>
+  </si>
+  <si>
+    <t>12/16-18/2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>01/02,03/2014</t>
+  </si>
+  <si>
+    <t>12/26,27/2013</t>
+  </si>
+  <si>
+    <t>03/05-07/2014</t>
+  </si>
+  <si>
+    <t>06/26,27/2014</t>
+  </si>
+  <si>
+    <t>08/13,14/2014</t>
+  </si>
+  <si>
+    <t>09/10,11/2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>12/18,19/2014</t>
+  </si>
+  <si>
+    <t>03/23,24/2015</t>
+  </si>
+  <si>
+    <t>06/02,03/2015</t>
+  </si>
+  <si>
+    <t>09/28-30/2015</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>06/27,28/2016</t>
+  </si>
+  <si>
+    <t>06/22-24/2016</t>
+  </si>
+  <si>
+    <t>8/30/2016-09/01/2016</t>
+  </si>
+  <si>
+    <t>12/21,22/2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>01/04-06/2017</t>
+  </si>
+  <si>
+    <t>UT(0-4-42)</t>
+  </si>
+  <si>
+    <t>UT(1-0-19)</t>
+  </si>
+  <si>
+    <t>02/20,21/2017</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>10/24,25/2017</t>
+  </si>
+  <si>
+    <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>12/21,22/2017</t>
+  </si>
+  <si>
+    <t>12/27-30/2017</t>
+  </si>
+  <si>
+    <t>SOLO(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/18-20/2017</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>SL(3-0-0)</t>
-  </si>
-  <si>
-    <t>1/23,24/25/2018</t>
-  </si>
-  <si>
-    <t>SOLO P(1-0-0)</t>
-  </si>
-  <si>
-    <t>2/7,8,9/2018</t>
-  </si>
-  <si>
-    <t>SOLO P(2-0-0)</t>
-  </si>
-  <si>
-    <t>3/15,16/2018</t>
-  </si>
-  <si>
-    <t>7/17,18/2018</t>
-  </si>
-  <si>
-    <t>8/6,7/2018</t>
-  </si>
-  <si>
-    <t>SL(1-0-0)</t>
-  </si>
-  <si>
-    <t>SL(2-0-0)</t>
-  </si>
-  <si>
-    <t>10/30,31/2018</t>
-  </si>
-  <si>
-    <t>11/14-16/2018</t>
-  </si>
-  <si>
-    <t>VL(2-0-0)</t>
-  </si>
-  <si>
-    <t>11/19,20/2018</t>
-  </si>
-  <si>
-    <t>VL(5-0-0)</t>
-  </si>
-  <si>
-    <t>12/17-21/2018</t>
-  </si>
-  <si>
-    <t>12/26-28/2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>SOLO P(4-0-0)</t>
-  </si>
-  <si>
-    <t>2/11,12, 3/5, 29/2019</t>
-  </si>
-  <si>
-    <t>2/13-15/2019</t>
-  </si>
-  <si>
-    <t>SP(1-0-0)</t>
-  </si>
-  <si>
-    <t>SP(2-0-0)</t>
-  </si>
-  <si>
-    <t>10/14,15/2019</t>
-  </si>
-  <si>
-    <t>VL(3-0-0)</t>
-  </si>
-  <si>
-    <t>12/16-18/2019</t>
-  </si>
-  <si>
-    <t>12/26,27/2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>CALAMITY LEAVE</t>
-  </si>
-  <si>
-    <t>2/3,4,5,6,7/2020</t>
-  </si>
-  <si>
-    <t>12/15,18/2020</t>
-  </si>
-  <si>
-    <t>VL(4-0-0)</t>
-  </si>
-  <si>
-    <t>12/22,23,28,29/2020</t>
-  </si>
-  <si>
-    <t>FL(1-0-0)</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>QL(7-0-0)</t>
-  </si>
-  <si>
-    <t>7/27-8/4/2021</t>
-  </si>
-  <si>
-    <t>12/29,31/2021</t>
-  </si>
-  <si>
-    <t>FL(3-0-0)</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>SL(8-0-0)</t>
-  </si>
-  <si>
-    <t>1/19-28/2022</t>
-  </si>
-  <si>
-    <t>4/7,8/2022</t>
-  </si>
-  <si>
-    <t>5/31, 6/1/2022</t>
-  </si>
-  <si>
-    <t>7/21,22/2022</t>
-  </si>
-  <si>
-    <t>8/17-19/2022</t>
-  </si>
-  <si>
-    <t>10/25,26,27/2022</t>
-  </si>
-  <si>
-    <t>FL(2-0-0)</t>
-  </si>
-  <si>
-    <t>12/22,23/2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>1/9,10,11</t>
-  </si>
-  <si>
-    <t>2/8,9/2023</t>
-  </si>
-  <si>
-    <t>ADMIN AIDE III</t>
-  </si>
-  <si>
-    <t>SL(0-4-0)</t>
-  </si>
-  <si>
-    <t>VL(1-0-0)</t>
-  </si>
-  <si>
-    <t>VL(8-0-0)</t>
-  </si>
-  <si>
-    <t>5/23-26,29-31/2023</t>
-  </si>
-  <si>
-    <t>UT(0-5-11)</t>
-  </si>
-  <si>
-    <t>UT(0-0-56)</t>
-  </si>
-  <si>
-    <t>UT(0-3-52)</t>
-  </si>
-  <si>
-    <t>UT(0-3-28)</t>
-  </si>
-  <si>
-    <t>UT(0-0-28)</t>
-  </si>
-  <si>
-    <t>UT(0-2-51)</t>
-  </si>
-  <si>
-    <t>6/29,30/2022</t>
-  </si>
-  <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
-    <t>UT(0-3-58)</t>
-  </si>
-  <si>
-    <t>UT(0-0-14)</t>
-  </si>
-  <si>
-    <t>UT(0-0-45)</t>
-  </si>
-  <si>
-    <t>7/27,28/2023</t>
-  </si>
-  <si>
     <t>8/16,17/2023</t>
   </si>
   <si>
-    <t>TOTAL LEAVE BALANCE</t>
-  </si>
-  <si>
     <t>9/6,7/2023</t>
+  </si>
+  <si>
+    <t>11/8,9/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +2737,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K153" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2832,12 +3084,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K153"/>
+  <dimension ref="A2:K309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A254" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
+      <selection pane="bottomLeft" activeCell="K272" sqref="K272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -3000,7 +3252,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>97.931000000000012</v>
+        <v>107.41500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3010,14 +3262,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.975000000000009</v>
+        <v>49.391999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3038,242 +3290,238 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
-        <v>43101</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="A11" s="23">
+        <v>40437</v>
+      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="13">
-        <v>1.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="39">
-        <v>3</v>
-      </c>
-      <c r="I11" s="9"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
-        <v>43132</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A12" s="23">
+        <v>40482</v>
+      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="49">
-        <v>43143</v>
-      </c>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="13"/>
+      <c r="A13" s="23">
+        <v>40512</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H13" s="39">
-        <v>3</v>
-      </c>
-      <c r="I13" s="9"/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="49" t="s">
-        <v>49</v>
-      </c>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
-        <v>43160</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="A14" s="23">
+        <v>40543</v>
+      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
-        <v>43191</v>
+      <c r="A15" s="48" t="s">
+        <v>115</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
-        <v>43221</v>
-      </c>
-      <c r="B16" s="20"/>
+      <c r="A16" s="23">
+        <v>40574</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="20"/>
       <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="39"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
-        <v>43252</v>
-      </c>
-      <c r="B17" s="15"/>
+      <c r="A17" s="23">
+        <v>40602</v>
+      </c>
+      <c r="B17" s="20"/>
       <c r="C17" s="13">
         <v>1.25</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="15"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
-        <v>43282</v>
+      <c r="A18" s="23">
+        <v>40633</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="39">
+        <v>1</v>
+      </c>
+      <c r="I18" s="34"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20" t="s">
-        <v>52</v>
+      <c r="K18" s="49">
+        <v>40631</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>43313</v>
+      <c r="A19" s="23">
+        <v>40663</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="49">
+        <v>40666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>40694</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
-        <v>43344</v>
-      </c>
-      <c r="B20" s="20"/>
       <c r="C20" s="13">
         <v>1.25</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
+      <c r="I20" s="34"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="49">
+        <v>40687</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
-        <v>43374</v>
+      <c r="A21" s="23">
+        <v>40724</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -3281,749 +3529,716 @@
       <c r="H21" s="39">
         <v>1</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="11"/>
       <c r="K21" s="49">
-        <v>43398</v>
+        <v>40703</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="13"/>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="49">
+        <v>40710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="39">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>40755</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="49">
+        <v>40745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="39">
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39">
-        <v>2</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
-        <v>43405</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H23" s="39">
-        <v>3</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="39">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
-        <v>43435</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H25" s="39">
+      <c r="H25" s="39"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>40786</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="39">
         <v>1</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="49">
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="39">
-        <v>5</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20" t="s">
-        <v>61</v>
+      <c r="K26" s="49">
+        <v>40764</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="39">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E27" s="34"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39">
-        <v>3</v>
-      </c>
-      <c r="I27" s="9"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="23">
+        <v>40816</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="39">
+        <v>2</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39">
+        <v>0.115</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
-        <v>43466</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="49">
-        <v>43480</v>
-      </c>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="23">
+        <v>40847</v>
+      </c>
       <c r="B30" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="E30" s="34"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="39">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9"/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="49">
-        <v>43476</v>
-      </c>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
-        <v>43497</v>
+      <c r="A31" s="23">
+        <v>40877</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="39">
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="E31" s="34"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="23">
+        <v>40908</v>
+      </c>
       <c r="B32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39">
-        <v>3</v>
-      </c>
-      <c r="I32" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="34"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20" t="s">
-        <v>66</v>
+      <c r="K32" s="49">
+        <v>40878</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
-        <v>43525</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A33" s="23"/>
+      <c r="B33" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G33" s="13"/>
       <c r="H33" s="39"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
-        <v>43556</v>
-      </c>
+      <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E34" s="34"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H34" s="39">
-        <v>1</v>
-      </c>
-      <c r="I34" s="9"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="49">
-        <v>43558</v>
-      </c>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="A35" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
-      <c r="I35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="49">
-        <v>43573</v>
-      </c>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="23">
+        <v>40939</v>
+      </c>
       <c r="B36" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="39"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H36" s="39">
         <v>1</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="11"/>
       <c r="K36" s="49">
-        <v>43584</v>
+        <v>40925</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>43586</v>
-      </c>
+      <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E37" s="34"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="49">
-        <v>43588</v>
-      </c>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>43617</v>
+      <c r="A38" s="23">
+        <v>40968</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="39">
+        <v>1</v>
+      </c>
+      <c r="I38" s="34"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="49">
-        <v>43644</v>
-      </c>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
-        <v>43647</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="9"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E39" s="34"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H39" s="39"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>43678</v>
-      </c>
-      <c r="B40" s="20"/>
+      <c r="A40" s="23">
+        <v>40999</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="39">
+        <v>3</v>
+      </c>
+      <c r="E40" s="34"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>43709</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="9"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="39">
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="E41" s="34"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H41" s="39"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
-        <v>43739</v>
-      </c>
-      <c r="B42" s="20"/>
+      <c r="A42" s="23">
+        <v>41029</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>43770</v>
-      </c>
+      <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="34"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G43" s="13"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="34"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="23">
+        <v>41060</v>
+      </c>
       <c r="B44" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="39">
         <v>1</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="11"/>
       <c r="K44" s="49">
-        <v>43775</v>
+        <v>41039</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
-        <v>43800</v>
-      </c>
+      <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="13">
-        <v>1.25</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="39">
-        <v>3</v>
-      </c>
-      <c r="E45" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="34"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G45" s="13"/>
       <c r="H45" s="39"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="34"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="39">
-        <v>2</v>
-      </c>
-      <c r="E46" s="9"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G46" s="13"/>
       <c r="H46" s="39"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20" t="s">
-        <v>72</v>
+      <c r="K46" s="49">
+        <v>41054</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="20"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="39">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="E47" s="34"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G47" s="13"/>
       <c r="H47" s="39"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B48" s="20"/>
+      <c r="A48" s="23">
+        <v>41090</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
       <c r="D48" s="39"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="39">
+        <v>1</v>
+      </c>
+      <c r="I48" s="34"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="49">
+        <v>41061</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>43862</v>
-      </c>
+      <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="9"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="39">
+        <v>1</v>
+      </c>
+      <c r="I49" s="34"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20" t="s">
-        <v>75</v>
+      <c r="K49" s="49">
+        <v>41075</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>43891</v>
-      </c>
+      <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="E50" s="34"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G50" s="13"/>
       <c r="H50" s="39"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="49">
-        <v>43902</v>
-      </c>
+      <c r="K50" s="49"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B51" s="20"/>
+      <c r="A51" s="23">
+        <v>41121</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="39">
+        <v>1</v>
+      </c>
+      <c r="I51" s="34"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="49">
+        <v>41109</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>43952</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A52" s="23"/>
+      <c r="B52" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="13"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="9"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="39">
+        <v>2</v>
+      </c>
+      <c r="I52" s="34"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
-        <v>43983</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="9"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E53" s="34"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G53" s="13"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="34"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
-        <v>44013</v>
+      <c r="A54" s="23">
+        <v>41152</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="9"/>
+      <c r="D54" s="39">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E54" s="34"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H54" s="39">
-        <v>1</v>
-      </c>
-      <c r="I54" s="9"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="34"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="49">
-        <v>44042</v>
-      </c>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>44044</v>
+      <c r="A55" s="23">
+        <v>41182</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>54</v>
@@ -4032,1111 +4247,1108 @@
         <v>1.25</v>
       </c>
       <c r="D55" s="39"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="39">
-        <v>1</v>
-      </c>
-      <c r="I55" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="I55" s="34"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="49">
-        <v>44063</v>
+      <c r="K55" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>44075</v>
-      </c>
+      <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="39">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E56" s="34"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H56" s="39"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="49">
-        <v>44084</v>
-      </c>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B57" s="20"/>
+      <c r="A57" s="23">
+        <v>41213</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="34"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A58" s="23"/>
+      <c r="B58" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="13"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G58" s="13"/>
       <c r="H58" s="39"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>44166</v>
-      </c>
+      <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E59" s="34"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G59" s="13"/>
       <c r="H59" s="39"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="34"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="23">
+        <v>41243</v>
+      </c>
       <c r="B60" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="39">
-        <v>4</v>
-      </c>
-      <c r="E60" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="9"/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="39">
+        <v>1</v>
+      </c>
+      <c r="I60" s="34"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20" t="s">
-        <v>78</v>
+      <c r="K60" s="49">
+        <v>41227</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="E61" s="34"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G61" s="13"/>
       <c r="H61" s="39"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="20"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="C62" s="13"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="9"/>
+      <c r="D62" s="39">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E62" s="34"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G62" s="13"/>
       <c r="H62" s="39"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>44197</v>
+      <c r="A63" s="23">
+        <v>41274</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H63" s="39">
-        <v>1</v>
-      </c>
-      <c r="I63" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="I63" s="34"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="49">
-        <v>44218</v>
+      <c r="K63" s="20" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="9"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39">
+        <v>6.200000000000002E-2</v>
+      </c>
+      <c r="E64" s="34"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G64" s="13"/>
       <c r="H64" s="39"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
-        <v>44256</v>
+      <c r="A65" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C65" s="13"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H65" s="39"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
-        <v>44287</v>
-      </c>
-      <c r="B66" s="20"/>
+      <c r="A66" s="23">
+        <v>41305</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="9"/>
+      <c r="D66" s="39">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E66" s="34"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
-        <v>44317</v>
-      </c>
-      <c r="B67" s="20"/>
+      <c r="A67" s="23">
+        <v>41333</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
       <c r="D67" s="39"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="9"/>
+      <c r="H67" s="39">
+        <v>3</v>
+      </c>
+      <c r="I67" s="34"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
-        <v>44348</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39">
+        <v>1.69</v>
+      </c>
+      <c r="E68" s="34"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H68" s="39"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="34"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44378</v>
+      <c r="A69" s="23">
+        <v>41364</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
       <c r="D69" s="39"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="20"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="9"/>
+      <c r="H69" s="39">
+        <v>1</v>
+      </c>
+      <c r="I69" s="34"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20" t="s">
-        <v>82</v>
+      <c r="K69" s="49">
+        <v>41351</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="9"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="39">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E70" s="34"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="34"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
-        <v>44440</v>
-      </c>
-      <c r="B71" s="20"/>
+      <c r="A71" s="23">
+        <v>41394</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="39"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="9"/>
+      <c r="H71" s="39">
+        <v>2</v>
+      </c>
+      <c r="I71" s="34"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>44470</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A72" s="23"/>
+      <c r="B72" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G72" s="13"/>
       <c r="H72" s="39"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="34"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="49">
+        <v>41397</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="9"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="39">
+        <v>0.51</v>
+      </c>
+      <c r="E73" s="34"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G73" s="13"/>
       <c r="H73" s="39"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="34"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>44531</v>
+      <c r="A74" s="23">
+        <v>41425</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
       <c r="D74" s="39">
-        <v>2</v>
-      </c>
-      <c r="E74" s="9"/>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="E74" s="34"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="34"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="23">
+        <v>41455</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39">
-        <v>3</v>
-      </c>
-      <c r="E75" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="E75" s="34"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="34"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="20" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="20"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="9"/>
+      <c r="D76" s="39">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="E76" s="34"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="34"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44562</v>
+      <c r="A77" s="23">
+        <v>41486</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="9"/>
+      <c r="D77" s="39">
+        <v>0.81</v>
+      </c>
+      <c r="E77" s="34"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H77" s="39">
-        <v>8</v>
-      </c>
-      <c r="I77" s="9"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="34"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B78" s="20"/>
+      <c r="A78" s="23">
+        <v>41517</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="9"/>
+      <c r="D78" s="39">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="E78" s="34"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="34"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>44621</v>
+      <c r="A79" s="23">
+        <v>41547</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
       <c r="D79" s="39">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E79" s="9"/>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E79" s="34"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="34"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44652</v>
+      <c r="A80" s="23">
+        <v>41578</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
       <c r="D80" s="39"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="9"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
+      <c r="I80" s="34"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>88</v>
+      <c r="K80" s="49">
+        <v>41535</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="39">
-        <v>2.9000000000000012E-2</v>
-      </c>
-      <c r="E81" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H81" s="39"/>
-      <c r="I81" s="9"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="39">
+        <v>1</v>
+      </c>
+      <c r="I81" s="34"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="49">
+        <v>41563</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>41608</v>
+      </c>
+      <c r="B83" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H82" s="39">
-        <v>1</v>
-      </c>
-      <c r="I82" s="9"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="49">
-        <v>44676</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="39"/>
-      <c r="I83" s="9"/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="39">
+        <v>2</v>
+      </c>
+      <c r="I83" s="34"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
-        <v>44685</v>
+      <c r="K83" s="20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="9"/>
+      <c r="D84" s="39">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E84" s="34"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39">
-        <v>2</v>
-      </c>
-      <c r="I84" s="9"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="34"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49" t="s">
-        <v>89</v>
-      </c>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="23">
+        <v>41639</v>
+      </c>
       <c r="B85" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39">
-        <v>1</v>
-      </c>
-      <c r="I85" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="I85" s="34"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="49" t="s">
-        <v>109</v>
+      <c r="K85" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="A86" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39">
+      <c r="H86" s="39"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
+        <v>41670</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39">
         <v>2</v>
       </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39">
-        <v>1</v>
-      </c>
-      <c r="E87" s="9"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="34"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49">
-        <v>44732</v>
+      <c r="K87" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39">
-        <v>0.496</v>
-      </c>
-      <c r="E88" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="E88" s="34"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="39"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="34"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49"/>
+      <c r="K88" s="20" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D89" s="39">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="E89" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="34"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H89" s="39"/>
-      <c r="I89" s="9"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
+      <c r="I89" s="34"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="49">
+        <v>41662</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="A90" s="23">
+        <v>41698</v>
+      </c>
+      <c r="B90" s="20"/>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
       <c r="D90" s="39"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H90" s="39">
-        <v>1</v>
-      </c>
-      <c r="I90" s="9"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="34"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="49">
-        <v>44782</v>
-      </c>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="23">
+        <v>41729</v>
+      </c>
       <c r="B91" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="34"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39">
         <v>3</v>
       </c>
-      <c r="I91" s="9"/>
+      <c r="I91" s="34"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49" t="s">
-        <v>91</v>
+      <c r="K91" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="A92" s="23">
+        <v>41759</v>
+      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="13">
-        <v>5.8000000000000017E-2</v>
+        <v>1.25</v>
       </c>
       <c r="D92" s="39"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="34"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>5.8000000000000017E-2</v>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="34"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="49"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>44805</v>
+      <c r="A93" s="23">
+        <v>41790</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
       <c r="D93" s="39"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="34"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H93" s="39">
-        <v>1</v>
-      </c>
-      <c r="I93" s="9"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="34"/>
       <c r="J93" s="11"/>
       <c r="K93" s="49">
-        <v>44810</v>
+        <v>41768</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="39">
-        <v>0.433</v>
-      </c>
-      <c r="E94" s="9"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="39"/>
-      <c r="I94" s="9"/>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
+      <c r="I94" s="34"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49"/>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>44835</v>
+      <c r="A95" s="23">
+        <v>41820</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
       <c r="D95" s="39">
-        <v>3</v>
-      </c>
-      <c r="E95" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="E95" s="34"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="34"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="39">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E96" s="9"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="34"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="9"/>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
+      <c r="I96" s="34"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="49">
+        <v>41807</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>44866</v>
+      <c r="A97" s="23">
+        <v>41851</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
-      <c r="D97" s="39">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E97" s="9"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="34"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="9"/>
+      <c r="H97" s="39">
+        <v>1</v>
+      </c>
+      <c r="I97" s="34"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>41837</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>44896</v>
+      <c r="A98" s="23">
+        <v>41882</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
       </c>
-      <c r="D98" s="39">
-        <v>2</v>
-      </c>
-      <c r="E98" s="9"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="34"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
+      <c r="H98" s="39">
+        <v>2</v>
+      </c>
+      <c r="I98" s="34"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="23">
+        <v>41912</v>
+      </c>
       <c r="B99" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="34"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39">
-        <v>1</v>
-      </c>
-      <c r="I99" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="I99" s="34"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="49">
-        <v>44923</v>
+      <c r="K99" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="E100" s="9"/>
+      <c r="A100" s="23">
+        <v>41943</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="34"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="34"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="49"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="48" t="s">
-        <v>95</v>
+      <c r="A101" s="23">
+        <v>41973</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="34"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="34"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>44927</v>
+      <c r="A102" s="23">
+        <v>42004</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
       </c>
       <c r="D102" s="39"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H102" s="39">
-        <v>3</v>
-      </c>
-      <c r="I102" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I102" s="34"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20" t="s">
-        <v>96</v>
+      <c r="K102" s="49">
+        <v>41975</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="13">
-        <v>1.25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C103" s="13"/>
       <c r="D103" s="39"/>
-      <c r="E103" s="9"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="9"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39">
+        <v>2</v>
+      </c>
+      <c r="I103" s="34"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="49">
-        <v>44977</v>
+      <c r="K103" s="20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="A104" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
-      <c r="E104" s="9"/>
+      <c r="E104" s="34"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H104" s="39"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="34"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="49" t="s">
-        <v>97</v>
-      </c>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>44986</v>
+      <c r="A105" s="23">
+        <v>42035</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
       <c r="D105" s="39"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="34"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -5145,929 +5357,4353 @@
       <c r="H105" s="39">
         <v>1</v>
       </c>
-      <c r="I105" s="9"/>
+      <c r="I105" s="34"/>
       <c r="J105" s="11"/>
       <c r="K105" s="49">
-        <v>45002</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="A106" s="23">
+        <v>42063</v>
+      </c>
+      <c r="B106" s="20"/>
       <c r="C106" s="13">
         <v>1.25</v>
       </c>
       <c r="D106" s="39"/>
-      <c r="E106" s="9"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="20"/>
       <c r="G106" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H106" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I106" s="9"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="34"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="49">
-        <v>45021</v>
-      </c>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="23">
+        <v>42094</v>
+      </c>
       <c r="B107" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
-      <c r="E107" s="9"/>
+      <c r="E107" s="34"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39">
-        <v>1</v>
-      </c>
-      <c r="I107" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="I107" s="34"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="49">
-        <v>45043</v>
+      <c r="K107" s="20" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="13">
-        <v>1.25</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C108" s="13"/>
       <c r="D108" s="39">
         <v>1</v>
       </c>
-      <c r="E108" s="9"/>
+      <c r="E108" s="34"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H108" s="39"/>
-      <c r="I108" s="9"/>
+      <c r="I108" s="34"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="49">
-        <v>45058</v>
-      </c>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="20" t="s">
+      <c r="A109" s="23">
+        <v>42124</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D109" s="39"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
+        <v>42155</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H110" s="39"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
+        <v>42185</v>
+      </c>
+      <c r="B111" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39">
-        <v>1</v>
-      </c>
-      <c r="I109" s="9"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="49">
-        <v>45057</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39">
-        <v>1</v>
-      </c>
-      <c r="I110" s="9"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="49">
-        <v>45064</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>101</v>
-      </c>
       <c r="C111" s="13">
         <v>1.25</v>
       </c>
-      <c r="D111" s="39">
-        <v>8</v>
-      </c>
-      <c r="E111" s="9"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="34"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="9"/>
+      <c r="H111" s="39">
+        <v>2</v>
+      </c>
+      <c r="I111" s="34"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45108</v>
+      <c r="A112" s="23">
+        <v>42216</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
       </c>
       <c r="D112" s="39"/>
-      <c r="E112" s="9"/>
+      <c r="E112" s="34"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H112" s="39">
-        <v>2</v>
-      </c>
-      <c r="I112" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I112" s="34"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20" t="s">
-        <v>114</v>
+      <c r="K112" s="49">
+        <v>42206</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45139</v>
+      <c r="A113" s="23">
+        <v>42247</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
       </c>
       <c r="D113" s="39"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="34"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H113" s="39">
-        <v>2</v>
-      </c>
-      <c r="I113" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="I113" s="34"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" s="13"/>
+      <c r="A114" s="23">
+        <v>42277</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="34"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39">
-        <v>2</v>
-      </c>
-      <c r="I114" s="9"/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H114" s="39"/>
+      <c r="I114" s="34"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="A115" s="23">
+        <v>42308</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="34"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="9"/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H115" s="39">
+        <v>1</v>
+      </c>
+      <c r="I115" s="34"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="49">
+        <v>42332</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B116" s="20"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="9"/>
+      <c r="D116" s="39">
+        <v>4</v>
+      </c>
+      <c r="E116" s="34"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H116" s="39"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="34"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45261</v>
+      <c r="A117" s="23">
+        <v>42338</v>
       </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
-      <c r="E117" s="9"/>
+      <c r="E117" s="34"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="34"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45292</v>
+      <c r="A118" s="23">
+        <v>42369</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
-      <c r="E118" s="9"/>
+      <c r="E118" s="34"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="39"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="34"/>
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>45323</v>
+      <c r="A119" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
-      <c r="E119" s="9"/>
+      <c r="E119" s="34"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H119" s="39"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="34"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="9"/>
+      <c r="A120" s="23">
+        <v>42400</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D120" s="39">
+        <v>1</v>
+      </c>
+      <c r="E120" s="34"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="34"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="49">
+        <v>42424</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B121" s="20"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
-      <c r="E121" s="9"/>
+      <c r="E121" s="34"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="9"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="39">
+        <v>1</v>
+      </c>
+      <c r="I121" s="34"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="49">
+        <v>42409</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B122" s="20"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="34"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="39">
+        <v>1</v>
+      </c>
+      <c r="I122" s="34"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="49">
+        <v>42429</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>45444</v>
+      <c r="A123" s="23">
+        <v>42429</v>
       </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
+      <c r="E123" s="34"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
+      <c r="I123" s="34"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>45474</v>
+      <c r="A124" s="23">
+        <v>42460</v>
       </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="34"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
-        <v>45505</v>
-      </c>
+      <c r="A125" s="23"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
-      <c r="E125" s="9"/>
+      <c r="E125" s="34"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G125" s="13"/>
       <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
+      <c r="I125" s="34"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>45536</v>
+      <c r="A126" s="23">
+        <v>42490</v>
       </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
+      <c r="E126" s="34"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G126" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="34"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40">
-        <v>45566</v>
+      <c r="A127" s="23">
+        <v>42521</v>
       </c>
       <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
+      <c r="E127" s="34"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="34"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="A128" s="23">
+        <v>42551</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
+      <c r="E128" s="34"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H128" s="39">
+        <v>5</v>
+      </c>
+      <c r="I128" s="34"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
+      <c r="K128" s="20" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>45627</v>
-      </c>
-      <c r="B129" s="20"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
+      <c r="E129" s="34"/>
       <c r="F129" s="20"/>
       <c r="G129" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
+      <c r="H129" s="39">
+        <v>3</v>
+      </c>
+      <c r="I129" s="34"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="20" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
+      <c r="A130" s="23">
+        <v>42582</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="34"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="49" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B131" s="20"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
+      <c r="E131" s="34"/>
       <c r="F131" s="20"/>
       <c r="G131" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
+      <c r="I131" s="34"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="49">
+        <v>42636</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40">
-        <v>45717</v>
+      <c r="A132" s="23">
+        <v>42613</v>
       </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="34"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H132" s="39"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="34"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40">
-        <v>45748</v>
+      <c r="A133" s="23">
+        <v>42643</v>
       </c>
       <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="39"/>
-      <c r="E133" s="9"/>
+      <c r="E133" s="34"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="39"/>
-      <c r="I133" s="9"/>
+      <c r="I133" s="34"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40">
-        <v>45778</v>
+      <c r="A134" s="23">
+        <v>42674</v>
       </c>
       <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
+      <c r="C134" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D134" s="39"/>
-      <c r="E134" s="9"/>
+      <c r="E134" s="34"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H134" s="39"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="34"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40">
-        <v>45809</v>
+      <c r="A135" s="23">
+        <v>42704</v>
       </c>
       <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D135" s="39"/>
-      <c r="E135" s="9"/>
+      <c r="E135" s="34"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H135" s="39"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="34"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="9"/>
+      <c r="A136" s="23">
+        <v>42735</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D136" s="39">
+        <v>2</v>
+      </c>
+      <c r="E136" s="34"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H136" s="39"/>
-      <c r="I136" s="9"/>
+      <c r="I136" s="34"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
+      <c r="K136" s="20" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B137" s="20"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
+      <c r="D137" s="39">
+        <v>2</v>
+      </c>
+      <c r="E137" s="34"/>
       <c r="F137" s="20"/>
       <c r="G137" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="34"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40">
-        <v>45901</v>
+      <c r="A138" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
+      <c r="E138" s="34"/>
       <c r="F138" s="20"/>
       <c r="G138" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
+      <c r="I138" s="34"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40">
-        <v>45931</v>
-      </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
+      <c r="A139" s="23">
+        <v>42766</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D139" s="39"/>
-      <c r="E139" s="9"/>
+      <c r="E139" s="34"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="39"/>
-      <c r="I139" s="9"/>
+      <c r="G139" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H139" s="39">
+        <v>3</v>
+      </c>
+      <c r="I139" s="34"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
+      <c r="K139" s="20" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40">
-        <v>45962</v>
-      </c>
-      <c r="B140" s="20"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="20" t="s">
+        <v>183</v>
+      </c>
       <c r="C140" s="13"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="9"/>
+      <c r="D140" s="39">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E140" s="34"/>
       <c r="F140" s="20"/>
       <c r="G140" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H140" s="39"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="34"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="13"/>
+      <c r="A141" s="23">
+        <v>42794</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D141" s="39"/>
-      <c r="E141" s="9"/>
+      <c r="E141" s="34"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="39"/>
-      <c r="I141" s="9"/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H141" s="39">
+        <v>2</v>
+      </c>
+      <c r="I141" s="34"/>
       <c r="J141" s="11"/>
-      <c r="K141" s="20"/>
+      <c r="K141" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B142" s="20"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="C142" s="13"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="9"/>
+      <c r="D142" s="39">
+        <v>1.04</v>
+      </c>
+      <c r="E142" s="34"/>
       <c r="F142" s="20"/>
       <c r="G142" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H142" s="39"/>
-      <c r="I142" s="9"/>
+      <c r="I142" s="34"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40">
-        <v>46054</v>
-      </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="13"/>
+      <c r="A143" s="23">
+        <v>42825</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D143" s="39"/>
-      <c r="E143" s="9"/>
+      <c r="E143" s="34"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G143" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H143" s="39"/>
-      <c r="I143" s="9"/>
+      <c r="I143" s="34"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
+      <c r="K143" s="49">
+        <v>42870</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40">
-        <v>46082</v>
-      </c>
-      <c r="B144" s="20"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
-      <c r="E144" s="9"/>
+      <c r="E144" s="34"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="39"/>
-      <c r="I144" s="9"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="39">
+        <v>1</v>
+      </c>
+      <c r="I144" s="34"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
+      <c r="K144" s="49">
+        <v>42880</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40">
-        <v>46113</v>
-      </c>
-      <c r="B145" s="20"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="C145" s="13"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="9"/>
+      <c r="D145" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="E145" s="34"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G145" s="13"/>
       <c r="H145" s="39"/>
-      <c r="I145" s="9"/>
+      <c r="I145" s="34"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40">
-        <v>46143</v>
+      <c r="A146" s="23">
+        <v>42855</v>
       </c>
       <c r="B146" s="20"/>
-      <c r="C146" s="13"/>
+      <c r="C146" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D146" s="39"/>
-      <c r="E146" s="9"/>
+      <c r="E146" s="34"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G146" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H146" s="39"/>
-      <c r="I146" s="9"/>
+      <c r="I146" s="34"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="40">
-        <v>46174</v>
+      <c r="A147" s="23">
+        <v>42886</v>
       </c>
       <c r="B147" s="20"/>
-      <c r="C147" s="13"/>
+      <c r="C147" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D147" s="39"/>
-      <c r="E147" s="9"/>
+      <c r="E147" s="34"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G147" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H147" s="39"/>
-      <c r="I147" s="9"/>
+      <c r="I147" s="34"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="20"/>
+      <c r="K147" s="49"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
-        <v>46204</v>
-      </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="13"/>
+      <c r="A148" s="23">
+        <v>42916</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D148" s="39"/>
-      <c r="E148" s="9"/>
+      <c r="E148" s="34"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="39"/>
-      <c r="I148" s="9"/>
+      <c r="G148" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H148" s="39">
+        <v>1</v>
+      </c>
+      <c r="I148" s="34"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="20"/>
+      <c r="K148" s="49">
+        <v>42892</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40">
-        <v>46235</v>
-      </c>
-      <c r="B149" s="20"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C149" s="13"/>
       <c r="D149" s="39"/>
-      <c r="E149" s="9"/>
+      <c r="E149" s="34"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H149" s="39"/>
-      <c r="I149" s="9"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="39">
+        <v>1</v>
+      </c>
+      <c r="I149" s="34"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
+      <c r="K149" s="49">
+        <v>42899</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40">
-        <v>46266</v>
-      </c>
-      <c r="B150" s="20"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
-      <c r="E150" s="9"/>
+      <c r="E150" s="34"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H150" s="39"/>
-      <c r="I150" s="9"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="39">
+        <v>1</v>
+      </c>
+      <c r="I150" s="34"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
+      <c r="K150" s="49">
+        <v>42913</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40">
-        <v>46296</v>
-      </c>
-      <c r="B151" s="20"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="C151" s="13"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="9"/>
+      <c r="D151" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="E151" s="34"/>
       <c r="F151" s="20"/>
       <c r="G151" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H151" s="39"/>
-      <c r="I151" s="9"/>
+      <c r="I151" s="34"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
+      <c r="K151" s="49"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="9"/>
+      <c r="A152" s="23">
+        <v>42947</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C152" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D152" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E152" s="34"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G152" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H152" s="39"/>
-      <c r="I152" s="9"/>
+      <c r="I152" s="34"/>
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="41"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="42"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="42" t="str">
+      <c r="A153" s="23">
+        <v>42978</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D153" s="39"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H153" s="39">
+        <v>1</v>
+      </c>
+      <c r="I153" s="34"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="49">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="23"/>
+      <c r="B154" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E154" s="34"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H153" s="43"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="15"/>
+      <c r="H154" s="39"/>
+      <c r="I154" s="34"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="49"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="23">
+        <v>43008</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D155" s="39"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H155" s="39">
+        <v>2</v>
+      </c>
+      <c r="I155" s="34"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="23"/>
+      <c r="B156" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E156" s="34"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="34"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="23">
+        <v>43039</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D157" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="E157" s="34"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="34"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="23">
+        <v>43069</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D158" s="39"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="34"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="23">
+        <v>43100</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D159" s="39">
+        <v>2</v>
+      </c>
+      <c r="E159" s="34"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="34"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="23"/>
+      <c r="B160" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39">
+        <v>3</v>
+      </c>
+      <c r="E160" s="34"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="39"/>
+      <c r="I160" s="34"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="23"/>
+      <c r="B161" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="39"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="23"/>
+      <c r="B162" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="34"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="39">
+        <v>1</v>
+      </c>
+      <c r="I162" s="34"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="49">
+        <v>43081</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="23"/>
+      <c r="B163" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="34"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="39">
+        <v>1</v>
+      </c>
+      <c r="I163" s="34"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="49">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="34"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="34"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D165" s="39"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H165" s="39">
+        <v>3</v>
+      </c>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="40">
+        <v>43132</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D166" s="39"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H166" s="39"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="49">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40"/>
+      <c r="B167" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39">
+        <v>3</v>
+      </c>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="40">
+        <v>43160</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="40">
+        <v>43191</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="40">
+        <v>43221</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D170" s="39"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H170" s="39"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="40">
+        <v>43252</v>
+      </c>
+      <c r="B171" s="15"/>
+      <c r="C171" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D171" s="43"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H171" s="43"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="15"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="40">
+        <v>43282</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D172" s="39"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H172" s="39"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="40">
+        <v>43313</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D173" s="39"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H173" s="39"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="40">
+        <v>43344</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D174" s="39"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H174" s="39"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="40">
+        <v>43374</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D175" s="39"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H175" s="39">
+        <v>1</v>
+      </c>
+      <c r="I175" s="9"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="49">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="40"/>
+      <c r="B176" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H176" s="39">
+        <v>2</v>
+      </c>
+      <c r="I176" s="9"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="40">
+        <v>43405</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D177" s="39"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H177" s="39">
+        <v>3</v>
+      </c>
+      <c r="I177" s="9"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="40"/>
+      <c r="B178" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="39">
+        <v>2</v>
+      </c>
+      <c r="E178" s="9"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="39"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="40">
+        <v>43435</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D179" s="39"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H179" s="39">
+        <v>1</v>
+      </c>
+      <c r="I179" s="9"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="49">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="40"/>
+      <c r="B180" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="39">
+        <v>5</v>
+      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H180" s="39"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="40"/>
+      <c r="B181" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H181" s="39">
+        <v>3</v>
+      </c>
+      <c r="I181" s="9"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B182" s="20"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H182" s="39"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C183" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D183" s="39"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H183" s="39"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="49">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="40"/>
+      <c r="B184" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H184" s="39">
+        <v>1</v>
+      </c>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="49">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="40">
+        <v>43497</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C185" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D185" s="39"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H185" s="39"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="40"/>
+      <c r="B186" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="13"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="39">
+        <v>3</v>
+      </c>
+      <c r="I186" s="9"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D187" s="39"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H187" s="39"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="20"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="40">
+        <v>43556</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D188" s="39"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H188" s="39">
+        <v>1</v>
+      </c>
+      <c r="I188" s="9"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="49">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="40"/>
+      <c r="B189" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H189" s="39">
+        <v>1</v>
+      </c>
+      <c r="I189" s="9"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="49">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="40"/>
+      <c r="B190" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H190" s="39">
+        <v>1</v>
+      </c>
+      <c r="I190" s="9"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="49">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C191" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D191" s="39"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H191" s="39"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="49">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="40">
+        <v>43617</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D192" s="39"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H192" s="39"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="49">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="40">
+        <v>43647</v>
+      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D193" s="39"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H193" s="39"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D194" s="39"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H194" s="39"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D195" s="39"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H195" s="39"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D196" s="39"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H196" s="39"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D197" s="39"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H197" s="39"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="40"/>
+      <c r="B198" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H198" s="39">
+        <v>1</v>
+      </c>
+      <c r="I198" s="9"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="49">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C199" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D199" s="39">
+        <v>3</v>
+      </c>
+      <c r="E199" s="9"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H199" s="39"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="40"/>
+      <c r="B200" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="39">
+        <v>2</v>
+      </c>
+      <c r="E200" s="9"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H200" s="39"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H201" s="39"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="20"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B202" s="20"/>
+      <c r="C202" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D202" s="39"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H202" s="39"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="20"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D203" s="39"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H203" s="39"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D204" s="39"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H204" s="39"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="49">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D205" s="39"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H205" s="39"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="20"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B206" s="20"/>
+      <c r="C206" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D206" s="39"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H206" s="39"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="20"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B207" s="20"/>
+      <c r="C207" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D207" s="39"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H207" s="39"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="20"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D208" s="39"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H208" s="39">
+        <v>1</v>
+      </c>
+      <c r="I208" s="9"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="49">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D209" s="39"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H209" s="39">
+        <v>1</v>
+      </c>
+      <c r="I209" s="9"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="49">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C210" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D210" s="39"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H210" s="39"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="49">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D211" s="39"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H211" s="39"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="20"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B212" s="20"/>
+      <c r="C212" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D212" s="39"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H212" s="39"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="20"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D213" s="39"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H213" s="39"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="40"/>
+      <c r="B214" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C214" s="13"/>
+      <c r="D214" s="39">
+        <v>4</v>
+      </c>
+      <c r="E214" s="9"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H214" s="39"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="40"/>
+      <c r="B215" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="39">
+        <v>1</v>
+      </c>
+      <c r="E215" s="9"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H215" s="39"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="20"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B216" s="20"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H216" s="39"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="20"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D217" s="39"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H217" s="39">
+        <v>1</v>
+      </c>
+      <c r="I217" s="9"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="49">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B218" s="20"/>
+      <c r="C218" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D218" s="39"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H218" s="39"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="20"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D219" s="39"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H219" s="39"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="20"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B220" s="20"/>
+      <c r="C220" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D220" s="39"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H220" s="39"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="20"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B221" s="20"/>
+      <c r="C221" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D221" s="39"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H221" s="39"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="20"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D222" s="39"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H222" s="39"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="20"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C223" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D223" s="39"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H223" s="39"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B224" s="20"/>
+      <c r="C224" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D224" s="39"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H224" s="39"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="20"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D225" s="39"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H225" s="39"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="20"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D226" s="39"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H226" s="39"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="20"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D227" s="39"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H227" s="39"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C228" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D228" s="39">
+        <v>2</v>
+      </c>
+      <c r="E228" s="9"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H228" s="39"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="40"/>
+      <c r="B229" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C229" s="13"/>
+      <c r="D229" s="39">
+        <v>3</v>
+      </c>
+      <c r="E229" s="9"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H229" s="39"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="20"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="39"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H230" s="39"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="20"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B231" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C231" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D231" s="39"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H231" s="39">
+        <v>8</v>
+      </c>
+      <c r="I231" s="9"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D232" s="39"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H232" s="39"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="20"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C233" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D233" s="39">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E233" s="9"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H233" s="39"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="20"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C234" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D234" s="39"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H234" s="39"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B235" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C235" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D235" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
+      <c r="E235" s="9"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H235" s="39"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D236" s="39"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H236" s="39">
+        <v>1</v>
+      </c>
+      <c r="I236" s="9"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="49">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="40"/>
+      <c r="B237" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="39"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="49">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="40"/>
+      <c r="B238" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="39">
+        <v>2</v>
+      </c>
+      <c r="I238" s="9"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="40"/>
+      <c r="B239" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C239" s="13"/>
+      <c r="D239" s="39"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H239" s="39">
+        <v>1</v>
+      </c>
+      <c r="I239" s="9"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="40"/>
+      <c r="B240" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" s="13"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="39">
+        <v>2</v>
+      </c>
+      <c r="I240" s="9"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="40"/>
+      <c r="B241" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C241" s="13"/>
+      <c r="D241" s="39">
+        <v>1</v>
+      </c>
+      <c r="E241" s="9"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H241" s="39"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="49">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="40"/>
+      <c r="B242" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C242" s="13"/>
+      <c r="D242" s="39">
+        <v>0.496</v>
+      </c>
+      <c r="E242" s="9"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="39"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="49"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C243" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D243" s="39">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E243" s="9"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H243" s="39"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="20"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B244" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D244" s="39"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H244" s="39">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="49">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="40"/>
+      <c r="B245" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C245" s="13"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H245" s="39">
+        <v>3</v>
+      </c>
+      <c r="I245" s="9"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="40"/>
+      <c r="B246" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C246" s="13">
+        <v>5.8000000000000017E-2</v>
+      </c>
+      <c r="D246" s="39"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>5.8000000000000017E-2</v>
+      </c>
+      <c r="H246" s="39"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="49"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C247" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D247" s="39"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H247" s="39">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="49">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="40"/>
+      <c r="B248" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39">
+        <v>0.433</v>
+      </c>
+      <c r="E248" s="9"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H248" s="39"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="49"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C249" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D249" s="39">
+        <v>3</v>
+      </c>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H249" s="39"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="40"/>
+      <c r="B250" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C250" s="13"/>
+      <c r="D250" s="39">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H250" s="39"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B251" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C251" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D251" s="39">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="20"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B252" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D252" s="39">
+        <v>2</v>
+      </c>
+      <c r="E252" s="9"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H252" s="39"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="40"/>
+      <c r="B253" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C253" s="13"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H253" s="39">
+        <v>1</v>
+      </c>
+      <c r="I253" s="9"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="49">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="40"/>
+      <c r="B254" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C254" s="13"/>
+      <c r="D254" s="39">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E254" s="9"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="39"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="49"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B255" s="20"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H255" s="39"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="20"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B256" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C256" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D256" s="39"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H256" s="39">
+        <v>3</v>
+      </c>
+      <c r="I256" s="9"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D257" s="39"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H257" s="39"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="49">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="40"/>
+      <c r="B258" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C258" s="13"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H258" s="39"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B259" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C259" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D259" s="39"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H259" s="39">
+        <v>1</v>
+      </c>
+      <c r="I259" s="9"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="49">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D260" s="39"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H260" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I260" s="9"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="49">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="40"/>
+      <c r="B261" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C261" s="13"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H261" s="39">
+        <v>1</v>
+      </c>
+      <c r="I261" s="9"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="49">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B262" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C262" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D262" s="39">
+        <v>1</v>
+      </c>
+      <c r="E262" s="9"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H262" s="39"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="49">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="40"/>
+      <c r="B263" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C263" s="13"/>
+      <c r="D263" s="39"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H263" s="39">
+        <v>1</v>
+      </c>
+      <c r="I263" s="9"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="49">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="40"/>
+      <c r="B264" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C264" s="13"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H264" s="39">
+        <v>1</v>
+      </c>
+      <c r="I264" s="9"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="49">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B265" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C265" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D265" s="39">
+        <v>8</v>
+      </c>
+      <c r="E265" s="9"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H265" s="39"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C266" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D266" s="39"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H266" s="39">
+        <v>2</v>
+      </c>
+      <c r="I266" s="9"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B267" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C267" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D267" s="39"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H267" s="39">
+        <v>2</v>
+      </c>
+      <c r="I267" s="9"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B268" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C268" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D268" s="39"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H268" s="39">
+        <v>2</v>
+      </c>
+      <c r="I268" s="9"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B269" s="20"/>
+      <c r="C269" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D269" s="39"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H269" s="39"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="20"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B270" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C270" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D270" s="39"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H270" s="39">
+        <v>2</v>
+      </c>
+      <c r="I270" s="9"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="40"/>
+      <c r="B271" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C271" s="13"/>
+      <c r="D271" s="39"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H271" s="39">
+        <v>1</v>
+      </c>
+      <c r="I271" s="9"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="49">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B272" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C272" s="13"/>
+      <c r="D272" s="39"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H272" s="39">
+        <v>2</v>
+      </c>
+      <c r="I272" s="9"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B273" s="20"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="39"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H273" s="39"/>
+      <c r="I273" s="9"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="20"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B274" s="20"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="39"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H274" s="39"/>
+      <c r="I274" s="9"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="20"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B275" s="20"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="39"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H275" s="39"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="20"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B276" s="20"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="39"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H276" s="39"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="20"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B277" s="20"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="39"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H277" s="39"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="20"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B278" s="20"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="39"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H278" s="39"/>
+      <c r="I278" s="9"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="20"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B279" s="20"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="39"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H279" s="39"/>
+      <c r="I279" s="9"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="20"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B280" s="20"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="39"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H280" s="39"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="20"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B281" s="20"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="39"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H281" s="39"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="20"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B282" s="20"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="39"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H282" s="39"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="20"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B283" s="20"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="39"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H283" s="39"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="20"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B284" s="20"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="39"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H284" s="39"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="20"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B285" s="20"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H285" s="39"/>
+      <c r="I285" s="9"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="20"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B286" s="20"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="39"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H286" s="39"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="20"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B287" s="20"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="39"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H287" s="39"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="20"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B288" s="20"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="39"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H288" s="39"/>
+      <c r="I288" s="9"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="20"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" s="40">
+        <v>45748</v>
+      </c>
+      <c r="B289" s="20"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="39"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H289" s="39"/>
+      <c r="I289" s="9"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="20"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" s="40">
+        <v>45778</v>
+      </c>
+      <c r="B290" s="20"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="39"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H290" s="39"/>
+      <c r="I290" s="9"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="20"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B291" s="20"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="39"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H291" s="39"/>
+      <c r="I291" s="9"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="20"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B292" s="20"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="39"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H292" s="39"/>
+      <c r="I292" s="9"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="20"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B293" s="20"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="39"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H293" s="39"/>
+      <c r="I293" s="9"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="20"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B294" s="20"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="39"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H294" s="39"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="20"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="40">
+        <v>45931</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H295" s="39"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="20"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B296" s="20"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="39"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H296" s="39"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="20"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B297" s="20"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="39"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H297" s="39"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="20"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B298" s="20"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="39"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H298" s="39"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="20"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B299" s="20"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="39"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H299" s="39"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="20"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B300" s="20"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="39"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B301" s="20"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="39"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H301" s="39"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="20"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B302" s="20"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="39"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H302" s="39"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="20"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="39"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H303" s="39"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="20"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="40">
+        <v>46204</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="39"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H304" s="39"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="20"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="40">
+        <v>46235</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="39"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H305" s="39"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="20"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="40">
+        <v>46266</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="39"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H306" s="39"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="20"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="39"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H307" s="39"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="20"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="40"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="39"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H308" s="39"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="20"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="41"/>
+      <c r="B309" s="15"/>
+      <c r="C309" s="42"/>
+      <c r="D309" s="43"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="15"/>
+      <c r="G309" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H309" s="43"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="12"/>
+      <c r="K309" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6114,7 +9750,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,21 +9811,23 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>52.529000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="B3" s="11">
-        <v>21.417000000000002</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
       <c r="E3" s="11">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
         <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>45</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>9.4E-2</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -6212,9 +9850,6 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6236,10 +9871,6 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>143.90600000000001</v>
-      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
